--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>144.719739747745</v>
+        <v>0.2597174313604445</v>
       </c>
       <c r="R2">
-        <v>1302.477657729705</v>
+        <v>2.337456882244</v>
       </c>
       <c r="S2">
-        <v>0.2284094087640711</v>
+        <v>0.001082507425619521</v>
       </c>
       <c r="T2">
-        <v>0.2284094087640711</v>
+        <v>0.001082507425619521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>0.470406353413</v>
+        <v>0.1407331658235555</v>
       </c>
       <c r="R3">
-        <v>4.233657180717</v>
+        <v>1.266598492412</v>
       </c>
       <c r="S3">
-        <v>0.0007424366382168001</v>
+        <v>0.0005865786375482562</v>
       </c>
       <c r="T3">
-        <v>0.0007424366382168001</v>
+        <v>0.0005865786375482562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>12.036250911482</v>
+        <v>4.783460631825332</v>
       </c>
       <c r="R4">
-        <v>108.326258203338</v>
+        <v>43.051145686428</v>
       </c>
       <c r="S4">
-        <v>0.01899666872825794</v>
+        <v>0.01993755916568875</v>
       </c>
       <c r="T4">
-        <v>0.01899666872825794</v>
+        <v>0.01993755916568875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>325.495524910397</v>
+        <v>95.3625546674191</v>
       </c>
       <c r="R5">
-        <v>2929.459724193573</v>
+        <v>858.2629920067719</v>
       </c>
       <c r="S5">
-        <v>0.5137256363902024</v>
+        <v>0.3974730267921899</v>
       </c>
       <c r="T5">
-        <v>0.5137256363902024</v>
+        <v>0.3974730267921899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>29.27200668209833</v>
+        <v>0.1755911176736667</v>
       </c>
       <c r="R6">
-        <v>263.448060138885</v>
+        <v>1.580320059063</v>
       </c>
       <c r="S6">
-        <v>0.04619965286871103</v>
+        <v>0.0007318672749800063</v>
       </c>
       <c r="T6">
-        <v>0.04619965286871101</v>
+        <v>0.0007318672749800061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>0.09514761389433332</v>
@@ -883,10 +883,10 @@
         <v>0.8563285250489999</v>
       </c>
       <c r="S7">
-        <v>0.000150170324192111</v>
+        <v>0.0003965771493698892</v>
       </c>
       <c r="T7">
-        <v>0.000150170324192111</v>
+        <v>0.0003965771493698892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>2.434534623420666</v>
+        <v>3.234027051209</v>
       </c>
       <c r="R8">
-        <v>21.91081161078599</v>
+        <v>29.106243460881</v>
       </c>
       <c r="S8">
-        <v>0.003842396447923681</v>
+        <v>0.01347948914807161</v>
       </c>
       <c r="T8">
-        <v>0.00384239644792368</v>
+        <v>0.01347948914807161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>65.83695629067567</v>
+        <v>64.47321410255766</v>
       </c>
       <c r="R9">
-        <v>592.532606616081</v>
+        <v>580.258926923019</v>
       </c>
       <c r="S9">
-        <v>0.1039096690430135</v>
+        <v>0.2687256402236445</v>
       </c>
       <c r="T9">
-        <v>0.1039096690430135</v>
+        <v>0.2687256402236445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>1.214565278790556</v>
+        <v>0.02172371766777778</v>
       </c>
       <c r="R10">
-        <v>10.931087509115</v>
+        <v>0.19551345901</v>
       </c>
       <c r="S10">
-        <v>0.001916933638199434</v>
+        <v>9.054488782000553E-05</v>
       </c>
       <c r="T10">
-        <v>0.001916933638199433</v>
+        <v>9.054488782000551E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>0.003947901127888889</v>
+        <v>0.01177143769222222</v>
       </c>
       <c r="R11">
-        <v>0.035531110151</v>
+        <v>0.10594293923</v>
       </c>
       <c r="S11">
-        <v>6.230924434026019E-06</v>
+        <v>4.906358670382572E-05</v>
       </c>
       <c r="T11">
-        <v>6.230924434026019E-06</v>
+        <v>4.906358670382572E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>0.1010146402237778</v>
+        <v>0.4001061757633333</v>
       </c>
       <c r="R12">
-        <v>0.9091317620139998</v>
+        <v>3.60095558187</v>
       </c>
       <c r="S12">
-        <v>0.0001594301806391132</v>
+        <v>0.001667650507828033</v>
       </c>
       <c r="T12">
-        <v>0.0001594301806391132</v>
+        <v>0.001667650507828033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H13">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I13">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J13">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>2.731732130302111</v>
+        <v>7.976473519014444</v>
       </c>
       <c r="R13">
-        <v>24.585589172719</v>
+        <v>71.78826167113</v>
       </c>
       <c r="S13">
-        <v>0.004311459665915024</v>
+        <v>0.03324610046141738</v>
       </c>
       <c r="T13">
-        <v>0.004311459665915023</v>
+        <v>0.03324610046141737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>14.74597850731278</v>
+        <v>0.1627005638311111</v>
       </c>
       <c r="R14">
-        <v>132.713806565815</v>
+        <v>1.46430507448</v>
       </c>
       <c r="S14">
-        <v>0.02327339890448838</v>
+        <v>0.000678139189876821</v>
       </c>
       <c r="T14">
-        <v>0.02327339890448838</v>
+        <v>0.0006781391898768209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.04793127730344445</v>
+        <v>0.08816260544888888</v>
       </c>
       <c r="R15">
-        <v>0.431381495731</v>
+        <v>0.79346344904</v>
       </c>
       <c r="S15">
-        <v>7.564935322071072E-05</v>
+        <v>0.0003674634950779876</v>
       </c>
       <c r="T15">
-        <v>7.56493532207107E-05</v>
+        <v>0.0003674634950779876</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>1.226413878014889</v>
+        <v>2.996609575973333</v>
       </c>
       <c r="R16">
-        <v>11.037724902134</v>
+        <v>26.96948618376</v>
       </c>
       <c r="S16">
-        <v>0.001935634138547415</v>
+        <v>0.01248992838363541</v>
       </c>
       <c r="T16">
-        <v>0.001935634138547414</v>
+        <v>0.01248992838363541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>33.16582812352656</v>
+        <v>59.74008495113777</v>
       </c>
       <c r="R17">
-        <v>298.4924531117391</v>
+        <v>537.66076456024</v>
       </c>
       <c r="S17">
-        <v>0.05234522398996743</v>
+        <v>0.2489978636705279</v>
       </c>
       <c r="T17">
-        <v>0.05234522398996742</v>
+        <v>0.2489978636705279</v>
       </c>
     </row>
   </sheetData>
